--- a/INTLINE/data/542/KERI/BSI.xlsx
+++ b/INTLINE/data/542/KERI/BSI.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:TQ19"/>
+  <dimension ref="A1:TT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3024,30 +3024,45 @@
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
+      <c r="TQ1" s="1" t="inlineStr">
         <is>
           <t>form_c</t>
         </is>
       </c>
-      <c r="TO1" s="1" t="inlineStr">
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>keyword</t>
         </is>
       </c>
-      <c r="TP1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="TQ1" s="1" t="inlineStr">
+      <c r="TT1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -4644,33 +4659,42 @@
       <c r="TJ2" t="n">
         <v>100.2717361450195</v>
       </c>
-      <c r="TK2" t="inlineStr"/>
-      <c r="TL2" t="inlineStr">
+      <c r="TK2" t="n">
+        <v>104.3103485107422</v>
+      </c>
+      <c r="TL2" t="n">
+        <v>91.51515197753906</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>99.4202880859375</v>
+      </c>
+      <c r="TN2" t="inlineStr"/>
+      <c r="TO2" t="inlineStr">
         <is>
           <t>KERIBSIA01</t>
         </is>
       </c>
-      <c r="TM2" t="inlineStr">
+      <c r="TP2" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Composite Business Conditions</t>
         </is>
       </c>
-      <c r="TN2" t="inlineStr">
+      <c r="TQ2" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO2" t="inlineStr">
+      <c r="TR2" t="inlineStr">
         <is>
           <t>전산업, 종합경기, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP2" t="inlineStr">
+      <c r="TS2" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ2" t="inlineStr">
+      <c r="TT2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -6267,33 +6291,42 @@
       <c r="TJ3" t="n">
         <v>100</v>
       </c>
-      <c r="TK3" t="inlineStr"/>
-      <c r="TL3" t="inlineStr">
+      <c r="TK3" t="n">
+        <v>105.7471237182617</v>
+      </c>
+      <c r="TL3" t="n">
+        <v>95.45454406738281</v>
+      </c>
+      <c r="TM3" t="n">
+        <v>104.3478240966797</v>
+      </c>
+      <c r="TN3" t="inlineStr"/>
+      <c r="TO3" t="inlineStr">
         <is>
           <t>KERIBSIA02</t>
         </is>
       </c>
-      <c r="TM3" t="inlineStr">
+      <c r="TP3" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Domestic Demand</t>
         </is>
       </c>
-      <c r="TN3" t="inlineStr">
+      <c r="TQ3" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO3" t="inlineStr">
+      <c r="TR3" t="inlineStr">
         <is>
           <t>전산업, 내수, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP3" t="inlineStr">
+      <c r="TS3" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ3" t="inlineStr">
+      <c r="TT3" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -7890,33 +7923,42 @@
       <c r="TJ4" t="n">
         <v>97.28260803222656</v>
       </c>
-      <c r="TK4" t="inlineStr"/>
-      <c r="TL4" t="inlineStr">
+      <c r="TK4" t="n">
+        <v>102.0114974975586</v>
+      </c>
+      <c r="TL4" t="n">
+        <v>99.09091186523438</v>
+      </c>
+      <c r="TM4" t="n">
+        <v>102.3188400268555</v>
+      </c>
+      <c r="TN4" t="inlineStr"/>
+      <c r="TO4" t="inlineStr">
         <is>
           <t>KERIBSIA03</t>
         </is>
       </c>
-      <c r="TM4" t="inlineStr">
+      <c r="TP4" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Exports</t>
         </is>
       </c>
-      <c r="TN4" t="inlineStr">
+      <c r="TQ4" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO4" t="inlineStr">
+      <c r="TR4" t="inlineStr">
         <is>
           <t>전산업, 수출, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP4" t="inlineStr">
+      <c r="TS4" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ4" t="inlineStr">
+      <c r="TT4" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -9197,33 +9239,42 @@
       <c r="TJ5" t="n">
         <v>102.1739120483398</v>
       </c>
-      <c r="TK5" t="inlineStr"/>
-      <c r="TL5" t="inlineStr">
+      <c r="TK5" t="n">
+        <v>100</v>
+      </c>
+      <c r="TL5" t="n">
+        <v>100</v>
+      </c>
+      <c r="TM5" t="n">
+        <v>101.4492721557617</v>
+      </c>
+      <c r="TN5" t="inlineStr"/>
+      <c r="TO5" t="inlineStr">
         <is>
           <t>KERIBSIA04</t>
         </is>
       </c>
-      <c r="TM5" t="inlineStr">
+      <c r="TP5" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Investment</t>
         </is>
       </c>
-      <c r="TN5" t="inlineStr">
+      <c r="TQ5" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO5" t="inlineStr">
+      <c r="TR5" t="inlineStr">
         <is>
           <t>전산업, 투자, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP5" t="inlineStr">
+      <c r="TS5" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ5" t="inlineStr">
+      <c r="TT5" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -10670,33 +10721,42 @@
       <c r="TJ6" t="n">
         <v>98.91304016113281</v>
       </c>
-      <c r="TK6" t="inlineStr"/>
-      <c r="TL6" t="inlineStr">
+      <c r="TK6" t="n">
+        <v>96.26436614990234</v>
+      </c>
+      <c r="TL6" t="n">
+        <v>95.15151214599609</v>
+      </c>
+      <c r="TM6" t="n">
+        <v>95.36231994628906</v>
+      </c>
+      <c r="TN6" t="inlineStr"/>
+      <c r="TO6" t="inlineStr">
         <is>
           <t>KERIBSIA05</t>
         </is>
       </c>
-      <c r="TM6" t="inlineStr">
+      <c r="TP6" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Cash Flow</t>
         </is>
       </c>
-      <c r="TN6" t="inlineStr">
+      <c r="TQ6" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO6" t="inlineStr">
+      <c r="TR6" t="inlineStr">
         <is>
           <t>전산업, 자금사정, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP6" t="inlineStr">
+      <c r="TS6" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ6" t="inlineStr">
+      <c r="TT6" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -12219,33 +12279,42 @@
       <c r="TJ7" t="n">
         <v>102.7173919677734</v>
       </c>
-      <c r="TK7" t="inlineStr"/>
-      <c r="TL7" t="inlineStr">
+      <c r="TK7" t="n">
+        <v>104.3103485107422</v>
+      </c>
+      <c r="TL7" t="n">
+        <v>102.1212158203125</v>
+      </c>
+      <c r="TM7" t="n">
+        <v>101.159423828125</v>
+      </c>
+      <c r="TN7" t="inlineStr"/>
+      <c r="TO7" t="inlineStr">
         <is>
           <t>KERIBSIA06</t>
         </is>
       </c>
-      <c r="TM7" t="inlineStr">
+      <c r="TP7" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Inventory</t>
         </is>
       </c>
-      <c r="TN7" t="inlineStr">
+      <c r="TQ7" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO7" t="inlineStr">
+      <c r="TR7" t="inlineStr">
         <is>
           <t>전산업, 재고, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP7" t="inlineStr">
+      <c r="TS7" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ7" t="inlineStr">
+      <c r="TT7" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -13842,33 +13911,42 @@
       <c r="TJ8" t="n">
         <v>103.8043441772461</v>
       </c>
-      <c r="TK8" t="inlineStr"/>
-      <c r="TL8" t="inlineStr">
+      <c r="TK8" t="n">
+        <v>100</v>
+      </c>
+      <c r="TL8" t="n">
+        <v>103.636360168457</v>
+      </c>
+      <c r="TM8" t="n">
+        <v>109.5652160644531</v>
+      </c>
+      <c r="TN8" t="inlineStr"/>
+      <c r="TO8" t="inlineStr">
         <is>
           <t>KERIBSIA07</t>
         </is>
       </c>
-      <c r="TM8" t="inlineStr">
+      <c r="TP8" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Employment</t>
         </is>
       </c>
-      <c r="TN8" t="inlineStr">
+      <c r="TQ8" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO8" t="inlineStr">
+      <c r="TR8" t="inlineStr">
         <is>
           <t>전산업, 고용, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP8" t="inlineStr">
+      <c r="TS8" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ8" t="inlineStr">
+      <c r="TT8" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -15031,33 +15109,42 @@
       <c r="TJ9" t="n">
         <v>95.38043212890625</v>
       </c>
-      <c r="TK9" t="inlineStr"/>
-      <c r="TL9" t="inlineStr">
+      <c r="TK9" t="n">
+        <v>96.26436614990234</v>
+      </c>
+      <c r="TL9" t="n">
+        <v>93.93939208984375</v>
+      </c>
+      <c r="TM9" t="n">
+        <v>97.39130401611328</v>
+      </c>
+      <c r="TN9" t="inlineStr"/>
+      <c r="TO9" t="inlineStr">
         <is>
           <t>KERIBSIA08</t>
         </is>
       </c>
-      <c r="TM9" t="inlineStr">
+      <c r="TP9" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, All Industries, Profitability</t>
         </is>
       </c>
-      <c r="TN9" t="inlineStr">
+      <c r="TQ9" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO9" t="inlineStr">
+      <c r="TR9" t="inlineStr">
         <is>
           <t>전산업, 채산성, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP9" t="inlineStr">
+      <c r="TS9" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ9" t="inlineStr">
+      <c r="TT9" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -16336,33 +16423,42 @@
       <c r="TJ10" t="n">
         <v>101.4423065185547</v>
       </c>
-      <c r="TK10" t="inlineStr"/>
-      <c r="TL10" t="inlineStr">
+      <c r="TK10" t="n">
+        <v>103.664924621582</v>
+      </c>
+      <c r="TL10" t="n">
+        <v>98.87640380859375</v>
+      </c>
+      <c r="TM10" t="n">
+        <v>99.48453521728516</v>
+      </c>
+      <c r="TN10" t="inlineStr"/>
+      <c r="TO10" t="inlineStr">
         <is>
           <t>KERIBSIA12</t>
         </is>
       </c>
-      <c r="TM10" t="inlineStr">
+      <c r="TP10" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Actual, Manufacturing, Investment</t>
         </is>
       </c>
-      <c r="TN10" t="inlineStr">
+      <c r="TQ10" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO10" t="inlineStr">
+      <c r="TR10" t="inlineStr">
         <is>
           <t>제조업, 투자, 원지수, 실적</t>
         </is>
       </c>
-      <c r="TP10" t="inlineStr">
+      <c r="TS10" t="inlineStr">
         <is>
           <t>Manufacturing</t>
         </is>
       </c>
-      <c r="TQ10" t="inlineStr">
+      <c r="TT10" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -17960,32 +18056,41 @@
       <c r="TK11" t="n">
         <v>96.46739196777344</v>
       </c>
-      <c r="TL11" t="inlineStr">
+      <c r="TL11" t="n">
+        <v>99.712646484375</v>
+      </c>
+      <c r="TM11" t="n">
+        <v>102.1212158203125</v>
+      </c>
+      <c r="TN11" t="n">
+        <v>99.13043212890625</v>
+      </c>
+      <c r="TO11" t="inlineStr">
         <is>
           <t>KERIBSIF01</t>
         </is>
       </c>
-      <c r="TM11" t="inlineStr">
+      <c r="TP11" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Composite Business Conditions</t>
         </is>
       </c>
-      <c r="TN11" t="inlineStr">
+      <c r="TQ11" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO11" t="inlineStr">
+      <c r="TR11" t="inlineStr">
         <is>
           <t>전산업, 종합경기, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP11" t="inlineStr">
+      <c r="TS11" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ11" t="inlineStr">
+      <c r="TT11" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -19583,32 +19688,41 @@
       <c r="TK12" t="n">
         <v>94.56521606445312</v>
       </c>
-      <c r="TL12" t="inlineStr">
+      <c r="TL12" t="n">
+        <v>100.8620681762695</v>
+      </c>
+      <c r="TM12" t="n">
+        <v>104.2424240112305</v>
+      </c>
+      <c r="TN12" t="n">
+        <v>102.898551940918</v>
+      </c>
+      <c r="TO12" t="inlineStr">
         <is>
           <t>KERIBSIF02</t>
         </is>
       </c>
-      <c r="TM12" t="inlineStr">
+      <c r="TP12" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Domestic Demand</t>
         </is>
       </c>
-      <c r="TN12" t="inlineStr">
+      <c r="TQ12" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO12" t="inlineStr">
+      <c r="TR12" t="inlineStr">
         <is>
           <t>전산업, 내수, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP12" t="inlineStr">
+      <c r="TS12" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ12" t="inlineStr">
+      <c r="TT12" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -21206,32 +21320,41 @@
       <c r="TK13" t="n">
         <v>98.36956787109375</v>
       </c>
-      <c r="TL13" t="inlineStr">
+      <c r="TL13" t="n">
+        <v>97.70114898681641</v>
+      </c>
+      <c r="TM13" t="n">
+        <v>104.2424240112305</v>
+      </c>
+      <c r="TN13" t="n">
+        <v>97.39130401611328</v>
+      </c>
+      <c r="TO13" t="inlineStr">
         <is>
           <t>KERIBSIF03</t>
         </is>
       </c>
-      <c r="TM13" t="inlineStr">
+      <c r="TP13" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Exports</t>
         </is>
       </c>
-      <c r="TN13" t="inlineStr">
+      <c r="TQ13" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO13" t="inlineStr">
+      <c r="TR13" t="inlineStr">
         <is>
           <t>전산업, 수출, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP13" t="inlineStr">
+      <c r="TS13" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ13" t="inlineStr">
+      <c r="TT13" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -22513,32 +22636,41 @@
       <c r="TK14" t="n">
         <v>103.260871887207</v>
       </c>
-      <c r="TL14" t="inlineStr">
+      <c r="TL14" t="n">
+        <v>102.2988510131836</v>
+      </c>
+      <c r="TM14" t="n">
+        <v>101.8181838989258</v>
+      </c>
+      <c r="TN14" t="n">
+        <v>103.1884078979492</v>
+      </c>
+      <c r="TO14" t="inlineStr">
         <is>
           <t>KERIBSIF04</t>
         </is>
       </c>
-      <c r="TM14" t="inlineStr">
+      <c r="TP14" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Investment</t>
         </is>
       </c>
-      <c r="TN14" t="inlineStr">
+      <c r="TQ14" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO14" t="inlineStr">
+      <c r="TR14" t="inlineStr">
         <is>
           <t>전산업, 투자, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP14" t="inlineStr">
+      <c r="TS14" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ14" t="inlineStr">
+      <c r="TT14" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -23986,32 +24118,41 @@
       <c r="TK15" t="n">
         <v>96.73912811279297</v>
       </c>
-      <c r="TL15" t="inlineStr">
+      <c r="TL15" t="n">
+        <v>94.25287628173828</v>
+      </c>
+      <c r="TM15" t="n">
+        <v>100</v>
+      </c>
+      <c r="TN15" t="n">
+        <v>97.39130401611328</v>
+      </c>
+      <c r="TO15" t="inlineStr">
         <is>
           <t>KERIBSIF05</t>
         </is>
       </c>
-      <c r="TM15" t="inlineStr">
+      <c r="TP15" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Cash Flow</t>
         </is>
       </c>
-      <c r="TN15" t="inlineStr">
+      <c r="TQ15" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO15" t="inlineStr">
+      <c r="TR15" t="inlineStr">
         <is>
           <t>전산업, 자금사정, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP15" t="inlineStr">
+      <c r="TS15" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ15" t="inlineStr">
+      <c r="TT15" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -25535,32 +25676,41 @@
       <c r="TK16" t="n">
         <v>104.0760879516602</v>
       </c>
-      <c r="TL16" t="inlineStr">
+      <c r="TL16" t="n">
+        <v>104.3103485107422</v>
+      </c>
+      <c r="TM16" t="n">
+        <v>101.2121200561523</v>
+      </c>
+      <c r="TN16" t="n">
+        <v>100.8695678710938</v>
+      </c>
+      <c r="TO16" t="inlineStr">
         <is>
           <t>KERIBSIF06</t>
         </is>
       </c>
-      <c r="TM16" t="inlineStr">
+      <c r="TP16" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Inventory</t>
         </is>
       </c>
-      <c r="TN16" t="inlineStr">
+      <c r="TQ16" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO16" t="inlineStr">
+      <c r="TR16" t="inlineStr">
         <is>
           <t>전산업, 재고, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP16" t="inlineStr">
+      <c r="TS16" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ16" t="inlineStr">
+      <c r="TT16" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -27158,32 +27308,41 @@
       <c r="TK17" t="n">
         <v>105.9782638549805</v>
       </c>
-      <c r="TL17" t="inlineStr">
+      <c r="TL17" t="n">
+        <v>102.0114974975586</v>
+      </c>
+      <c r="TM17" t="n">
+        <v>104.5454559326172</v>
+      </c>
+      <c r="TN17" t="n">
+        <v>107.5362319946289</v>
+      </c>
+      <c r="TO17" t="inlineStr">
         <is>
           <t>KERIBSIF07</t>
         </is>
       </c>
-      <c r="TM17" t="inlineStr">
+      <c r="TP17" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Employment</t>
         </is>
       </c>
-      <c r="TN17" t="inlineStr">
+      <c r="TQ17" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO17" t="inlineStr">
+      <c r="TR17" t="inlineStr">
         <is>
           <t>전산업, 고용, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP17" t="inlineStr">
+      <c r="TS17" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ17" t="inlineStr">
+      <c r="TT17" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -28347,32 +28506,41 @@
       <c r="TK18" t="n">
         <v>92.93478393554688</v>
       </c>
-      <c r="TL18" t="inlineStr">
+      <c r="TL18" t="n">
+        <v>94.25287628173828</v>
+      </c>
+      <c r="TM18" t="n">
+        <v>99.09091186523438</v>
+      </c>
+      <c r="TN18" t="n">
+        <v>96.81159210205078</v>
+      </c>
+      <c r="TO18" t="inlineStr">
         <is>
           <t>KERIBSIF08</t>
         </is>
       </c>
-      <c r="TM18" t="inlineStr">
+      <c r="TP18" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, All Industries, Profitability</t>
         </is>
       </c>
-      <c r="TN18" t="inlineStr">
+      <c r="TQ18" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO18" t="inlineStr">
+      <c r="TR18" t="inlineStr">
         <is>
           <t>전산업, 채산성, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP18" t="inlineStr">
+      <c r="TS18" t="inlineStr">
         <is>
           <t>All Industries</t>
         </is>
       </c>
-      <c r="TQ18" t="inlineStr">
+      <c r="TT18" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -29652,32 +29820,41 @@
       <c r="TK19" t="n">
         <v>104.8076934814453</v>
       </c>
-      <c r="TL19" t="inlineStr">
+      <c r="TL19" t="n">
+        <v>104.1884841918945</v>
+      </c>
+      <c r="TM19" t="n">
+        <v>101.1235961914062</v>
+      </c>
+      <c r="TN19" t="n">
+        <v>102.5773162841797</v>
+      </c>
+      <c r="TO19" t="inlineStr">
         <is>
           <t>KERIBSIF12</t>
         </is>
       </c>
-      <c r="TM19" t="inlineStr">
+      <c r="TP19" t="inlineStr">
         <is>
           <t>Surveys and Cyclical Indicators, Business Survey Index, Forecast, Manufacturing, Investment</t>
         </is>
       </c>
-      <c r="TN19" t="inlineStr">
+      <c r="TQ19" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="TO19" t="inlineStr">
+      <c r="TR19" t="inlineStr">
         <is>
           <t>제조업, 투자, 원지수, 전망</t>
         </is>
       </c>
-      <c r="TP19" t="inlineStr">
+      <c r="TS19" t="inlineStr">
         <is>
           <t>Manufacturing</t>
         </is>
       </c>
-      <c r="TQ19" t="inlineStr">
+      <c r="TT19" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
